--- a/results.xlsx
+++ b/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB90798-2EAF-4978-B5D3-A14F8D1F0039}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78520A90-59A5-4870-8E68-4E239597F1D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>SVM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RandomForest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,14 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>normalized + feature selection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normalized + upsampling + feature selection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>normalized + upsampling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +51,22 @@
   </si>
   <si>
     <t>Random Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalized + feature selection(LassoCV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalized + upsampling + feature selection(LassoCV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logloss*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,7 +700,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,55 +720,55 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="16" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6">
         <v>0.61799999999999999</v>
@@ -779,7 +783,7 @@
         <v>16.863</v>
       </c>
       <c r="F4" s="6">
-        <v>0.54700000000000004</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="G4" s="11">
         <v>1.893</v>
@@ -793,20 +797,36 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="E5" s="4">
+        <v>20.902000000000001</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3.6829999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6">
         <v>0.78900000000000003</v>
@@ -826,21 +846,41 @@
       <c r="G6" s="11">
         <v>1.996</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="6">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3.8879999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1.601</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="E7" s="10">
+        <v>21.766999999999999</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="I7" s="10">
+        <v>6.6559999999999997</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/results.xlsx
+++ b/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78520A90-59A5-4870-8E68-4E239597F1D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59C3DE1-1962-4431-9E06-1B070563C62C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
   <si>
     <t>SVM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,10 @@
     <t>logloss*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>F1 Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -104,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -257,11 +261,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -304,17 +370,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -385,13 +469,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -431,6 +515,92 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3" descr="preview url image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B684893-5FFC-42F1-A89F-B44B3EDB887A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6066692" y="3487615"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 3" descr="preview url image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624176AD-3DC9-4397-BE19-0A9B73655410}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7891096" y="3487615"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -697,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,28 +889,28 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
@@ -771,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>0.61799999999999999</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="C4" s="4">
         <v>1.3</v>
@@ -809,7 +979,7 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="E5" s="4">
-        <v>20.902000000000001</v>
+        <v>20.902999999999999</v>
       </c>
       <c r="F5" s="6">
         <v>0.51800000000000002</v>
@@ -882,13 +1052,389 @@
         <v>6.6559999999999997</v>
       </c>
     </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.112</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.627</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.111</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="25"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="G19" s="22">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="H19" s="21">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="I19" s="24">
+        <v>1.893</v>
+      </c>
+      <c r="J19" s="22">
+        <v>0.27</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="L19" s="24">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="M19" s="22">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="L20" s="11">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="I21" s="11">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="L21" s="11">
+        <v>8.2040000000000006</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="13">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0.372</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.845</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="L22" s="2">
+        <v>6.7359999999999998</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="15">
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59C3DE1-1962-4431-9E06-1B070563C62C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF26ED7-B704-489E-A9AA-AF5CA0B10AE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>SVM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -167,15 +167,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -186,17 +177,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -205,19 +185,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -244,30 +211,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -327,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -345,59 +288,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,13 +395,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -519,7 +443,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -562,7 +486,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -867,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,562 +803,240 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="19"/>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.376</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="I3" s="15">
+        <v>1.893</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0.27</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="L3" s="15">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.02</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="I5" s="8">
         <v>2</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>2</v>
+      <c r="J5" s="4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="L5" s="8">
+        <v>8.2040000000000006</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.627</v>
-      </c>
-      <c r="E4" s="4">
-        <v>16.863</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="G4" s="11">
-        <v>1.893</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1.4970000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="E5" s="4">
-        <v>20.902999999999999</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1.3140000000000001</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="I5" s="4">
-        <v>3.6829999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.6080000000000001</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="E6" s="4">
-        <v>18.009</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1.996</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="I6" s="4">
-        <v>3.8879999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1.601</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="E7" s="10">
-        <v>21.766999999999999</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.72</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1.5169999999999999</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="I7" s="10">
-        <v>6.6559999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.112</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.627</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.111</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.40799999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0.72</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="I15" s="10">
-        <v>0.26500000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="19"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="F19" s="24">
-        <v>1.1439999999999999</v>
-      </c>
-      <c r="G19" s="22">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="H19" s="21">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="I19" s="24">
-        <v>1.893</v>
-      </c>
-      <c r="J19" s="22">
-        <v>0.27</v>
-      </c>
-      <c r="K19" s="21">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="L19" s="24">
-        <v>2.2440000000000002</v>
-      </c>
-      <c r="M19" s="22">
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="F20" s="11">
-        <v>1.02</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0.48</v>
-      </c>
-      <c r="I20" s="11">
-        <v>1.3009999999999999</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="L20" s="11">
-        <v>1.8280000000000001</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0.54900000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="I21" s="11">
-        <v>2</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="L21" s="11">
-        <v>8.2040000000000006</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0.46200000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="13">
+      <c r="B6" s="9">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="E6" s="9">
         <v>0.68899999999999995</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F6" s="2">
         <v>0.96799999999999997</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G6" s="3">
         <v>0.54400000000000004</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H6" s="9">
         <v>0.372</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I6" s="2">
         <v>1.845</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J6" s="3">
         <v>0.26900000000000002</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K6" s="9">
         <v>0.65900000000000003</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L6" s="2">
         <v>6.7359999999999998</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M6" s="3">
         <v>0.55400000000000005</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
